--- a/Final Exam/Movies.xlsx
+++ b/Final Exam/Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdn3.BYU\Documents\GitHub\r4ds\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8C33CE-2F5A-40B8-ABFA-268799D082EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D277EFD7-4949-4D53-8283-1BB92B230A9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,27 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="470">
   <si>
-    <t>Movie</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Worldwide</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
     <t>'Crocodile' Dundee II</t>
   </si>
   <si>
@@ -1430,6 +1409,27 @@
   </si>
   <si>
     <t>You've Got Mail</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>director</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2273,7 @@
   <dimension ref="A1:G278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,36 +2289,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>465</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>466</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>468</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1988</v>
@@ -2330,18 +2330,18 @@
         <v>239.6</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1996</v>
@@ -2353,18 +2353,18 @@
         <v>304.89999999999998</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2002</v>
@@ -2376,18 +2376,18 @@
         <v>229.7</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>2001</v>
@@ -2399,18 +2399,18 @@
         <v>312.10000000000002</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1998</v>
@@ -2422,18 +2422,18 @@
         <v>358</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1992</v>
@@ -2445,18 +2445,18 @@
         <v>237.3</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1992</v>
@@ -2468,18 +2468,18 @@
         <v>130.5</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1996</v>
@@ -2491,18 +2491,18 @@
         <v>152.30000000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>1995</v>
@@ -2514,18 +2514,18 @@
         <v>212.3</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>1997</v>
@@ -2537,18 +2537,18 @@
         <v>315.10000000000002</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>1970</v>
@@ -2560,18 +2560,18 @@
         <v>100.5</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>1992</v>
@@ -2583,18 +2583,18 @@
         <v>502.4</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>1999</v>
@@ -2606,18 +2606,18 @@
         <v>348.1</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1973</v>
@@ -2629,18 +2629,18 @@
         <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>1999</v>
@@ -2652,18 +2652,18 @@
         <v>201.8</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>2001</v>
@@ -2675,18 +2675,18 @@
         <v>285.39999999999998</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1982</v>
@@ -2698,18 +2698,18 @@
         <v>129.80000000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>1999</v>
@@ -2721,18 +2721,18 @@
         <v>176.9</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>2003</v>
@@ -2744,18 +2744,18 @@
         <v>149.4</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1995</v>
@@ -2767,18 +2767,18 @@
         <v>334.1</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>1998</v>
@@ -2790,18 +2790,18 @@
         <v>554.6</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>1997</v>
@@ -2813,18 +2813,18 @@
         <v>313.39999999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>2002</v>
@@ -2836,18 +2836,18 @@
         <v>287.89999999999998</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>1999</v>
@@ -2859,18 +2859,18 @@
         <v>310.3</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1985</v>
@@ -2882,18 +2882,18 @@
         <v>350.6</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1989</v>
@@ -2905,18 +2905,18 @@
         <v>332</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>1942</v>
@@ -2928,18 +2928,18 @@
         <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>1992</v>
@@ -2951,18 +2951,18 @@
         <v>352.7</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>1989</v>
@@ -2974,18 +2974,18 @@
         <v>413</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>1997</v>
@@ -2997,18 +2997,18 @@
         <v>237.3</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>1995</v>
@@ -3020,18 +3020,18 @@
         <v>335</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>1992</v>
@@ -3043,18 +3043,18 @@
         <v>282.8</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>1991</v>
@@ -3066,18 +3066,18 @@
         <v>378</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1984</v>
@@ -3089,18 +3089,18 @@
         <v>316.39999999999998</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>1987</v>
@@ -3112,18 +3112,18 @@
         <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>1988</v>
@@ -3135,18 +3135,18 @@
         <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>1999</v>
@@ -3158,18 +3158,18 @@
         <v>233.6</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>2000</v>
@@ -3181,18 +3181,18 @@
         <v>169.7</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>2001</v>
@@ -3204,18 +3204,18 @@
         <v>153.6</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>1974</v>
@@ -3227,18 +3227,18 @@
         <v>119.5</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>2003</v>
@@ -3250,18 +3250,18 @@
         <v>130.4</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>2003</v>
@@ -3273,18 +3273,18 @@
         <v>137.4</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>1969</v>
@@ -3296,18 +3296,18 @@
         <v>102.3</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>1995</v>
@@ -3319,18 +3319,18 @@
         <v>282.3</v>
       </c>
       <c r="G45" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>2000</v>
@@ -3342,18 +3342,18 @@
         <v>424.3</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>2002</v>
@@ -3365,18 +3365,18 @@
         <v>335.8</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>2000</v>
@@ -3388,18 +3388,18 @@
         <v>258.5</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>2002</v>
@@ -3411,18 +3411,18 @@
         <v>286.5</v>
       </c>
       <c r="G49" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>2000</v>
@@ -3434,18 +3434,18 @@
         <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>1991</v>
@@ -3457,18 +3457,18 @@
         <v>179</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>1994</v>
@@ -3480,18 +3480,18 @@
         <v>207.5</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>1977</v>
@@ -3503,18 +3503,18 @@
         <v>300</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>1988</v>
@@ -3526,18 +3526,18 @@
         <v>288.8</v>
       </c>
       <c r="G54" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>1997</v>
@@ -3549,18 +3549,18 @@
         <v>223.2</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>1997</v>
@@ -3572,18 +3572,18 @@
         <v>165.9</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>1986</v>
@@ -3595,18 +3595,18 @@
         <v>328.2</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>2000</v>
@@ -3618,18 +3618,18 @@
         <v>209.1</v>
       </c>
       <c r="G58" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>1990</v>
@@ -3641,18 +3641,18 @@
         <v>424.2</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>2003</v>
@@ -3664,18 +3664,18 @@
         <v>173.5</v>
       </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>1998</v>
@@ -3687,18 +3687,18 @@
         <v>348.8</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>1990</v>
@@ -3710,18 +3710,18 @@
         <v>162.69999999999999</v>
       </c>
       <c r="G62" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>2002</v>
@@ -3733,18 +3733,18 @@
         <v>424.7</v>
       </c>
       <c r="G63" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>1990</v>
@@ -3756,18 +3756,18 @@
         <v>237.7</v>
       </c>
       <c r="G64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>1995</v>
@@ -3779,18 +3779,18 @@
         <v>365</v>
       </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>2000</v>
@@ -3802,18 +3802,18 @@
         <v>347.8</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>1965</v>
@@ -3825,18 +3825,18 @@
         <v>111.7</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>1999</v>
@@ -3848,18 +3848,18 @@
         <v>177.8</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>1998</v>
@@ -3871,18 +3871,18 @@
         <v>293.39999999999998</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>2001</v>
@@ -3894,18 +3894,18 @@
         <v>175</v>
       </c>
       <c r="G70" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>2000</v>
@@ -3917,18 +3917,18 @@
         <v>340</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>1989</v>
@@ -3940,18 +3940,18 @@
         <v>145.80000000000001</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>1994</v>
@@ -3963,18 +3963,18 @@
         <v>244.4</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>1982</v>
@@ -3986,18 +3986,18 @@
         <v>757</v>
       </c>
       <c r="G74" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>1998</v>
@@ -4009,18 +4009,18 @@
         <v>245.1</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>1996</v>
@@ -4032,18 +4032,18 @@
         <v>235</v>
       </c>
       <c r="G76" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>2000</v>
@@ -4055,18 +4055,18 @@
         <v>256.60000000000002</v>
       </c>
       <c r="G77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>1978</v>
@@ -4078,18 +4078,18 @@
         <v>105.9</v>
       </c>
       <c r="G78" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>1997</v>
@@ -4101,18 +4101,18 @@
         <v>241.3</v>
       </c>
       <c r="G79" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>1987</v>
@@ -4124,18 +4124,18 @@
         <v>320.10000000000002</v>
       </c>
       <c r="G80" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>1994</v>
@@ -4147,18 +4147,18 @@
         <v>680</v>
       </c>
       <c r="G81" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>1997</v>
@@ -4170,18 +4170,18 @@
         <v>174.3</v>
       </c>
       <c r="G82" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>1990</v>
@@ -4193,18 +4193,18 @@
         <v>517.6</v>
       </c>
       <c r="G83" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>1984</v>
@@ -4216,18 +4216,18 @@
         <v>291.60000000000002</v>
       </c>
       <c r="G84" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>1989</v>
@@ -4239,18 +4239,18 @@
         <v>215.5</v>
       </c>
       <c r="G85" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>2000</v>
@@ -4262,18 +4262,18 @@
         <v>456.3</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>1998</v>
@@ -4285,18 +4285,18 @@
         <v>376</v>
       </c>
       <c r="G87" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>1995</v>
@@ -4308,18 +4308,18 @@
         <v>351.3</v>
       </c>
       <c r="G88" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>1939</v>
@@ -4331,18 +4331,18 @@
         <v>390.5</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>2000</v>
@@ -4354,18 +4354,18 @@
         <v>230.5</v>
       </c>
       <c r="G90" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D91">
         <v>1987</v>
@@ -4377,18 +4377,18 @@
         <v>123.9</v>
       </c>
       <c r="G91" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D92">
         <v>1997</v>
@@ -4400,18 +4400,18 @@
         <v>225.9</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>1978</v>
@@ -4423,18 +4423,18 @@
         <v>379.8</v>
       </c>
       <c r="G93" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>1984</v>
@@ -4446,18 +4446,18 @@
         <v>148</v>
       </c>
       <c r="G94" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D95">
         <v>2001</v>
@@ -4469,18 +4469,18 @@
         <v>349.3</v>
       </c>
       <c r="G95" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>2002</v>
@@ -4492,18 +4492,18 @@
         <v>866.4</v>
       </c>
       <c r="G96" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>2001</v>
@@ -4515,18 +4515,18 @@
         <v>968.7</v>
       </c>
       <c r="G97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <v>1990</v>
@@ -4538,18 +4538,18 @@
         <v>533.79999999999995</v>
       </c>
       <c r="G98" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>1992</v>
@@ -4561,18 +4561,18 @@
         <v>279.60000000000002</v>
       </c>
       <c r="G99" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D100">
         <v>1989</v>
@@ -4584,18 +4584,18 @@
         <v>222.7</v>
       </c>
       <c r="G100" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>1991</v>
@@ -4607,18 +4607,18 @@
         <v>300.89999999999998</v>
       </c>
       <c r="G101" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>2003</v>
@@ -4630,18 +4630,18 @@
         <v>110.9</v>
       </c>
       <c r="G102" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>2002</v>
@@ -4653,18 +4653,18 @@
         <v>378.4</v>
       </c>
       <c r="G103" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>1993</v>
@@ -4676,18 +4676,18 @@
         <v>187.3</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>1993</v>
@@ -4699,18 +4699,18 @@
         <v>266.60000000000002</v>
       </c>
       <c r="G105" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D106">
         <v>1996</v>
@@ -4722,18 +4722,18 @@
         <v>813.1</v>
       </c>
       <c r="G106" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>1989</v>
@@ -4745,18 +4745,18 @@
         <v>494.8</v>
       </c>
       <c r="G107" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>1984</v>
@@ -4768,18 +4768,18 @@
         <v>333.1</v>
       </c>
       <c r="G108" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D109">
         <v>1994</v>
@@ -4791,18 +4791,18 @@
         <v>221.3</v>
       </c>
       <c r="G109" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>1975</v>
@@ -4814,18 +4814,18 @@
         <v>471</v>
       </c>
       <c r="G110" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>1978</v>
@@ -4837,18 +4837,18 @@
         <v>208.9</v>
       </c>
       <c r="G111" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <v>1996</v>
@@ -4860,18 +4860,18 @@
         <v>273.60000000000002</v>
       </c>
       <c r="G112" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <v>1995</v>
@@ -4883,18 +4883,18 @@
         <v>264.7</v>
       </c>
       <c r="G113" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <v>1993</v>
@@ -4906,18 +4906,18 @@
         <v>920</v>
       </c>
       <c r="G114" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>2001</v>
@@ -4929,18 +4929,18 @@
         <v>365.3</v>
       </c>
       <c r="G115" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D116">
         <v>1979</v>
@@ -4952,18 +4952,18 @@
         <v>106.3</v>
       </c>
       <c r="G116" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D117">
         <v>2001</v>
@@ -4975,18 +4975,18 @@
         <v>224.6</v>
       </c>
       <c r="G117" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>1989</v>
@@ -4998,18 +4998,18 @@
         <v>227.3</v>
       </c>
       <c r="G118" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>1992</v>
@@ -5021,18 +5021,18 @@
         <v>319.7</v>
       </c>
       <c r="G119" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>1998</v>
@@ -5044,18 +5044,18 @@
         <v>285.39999999999998</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>1997</v>
@@ -5067,18 +5067,18 @@
         <v>306.39999999999998</v>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D122">
         <v>2002</v>
@@ -5090,18 +5090,18 @@
         <v>262.8</v>
       </c>
       <c r="G122" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D123">
         <v>1989</v>
@@ -5113,18 +5113,18 @@
         <v>297.10000000000002</v>
       </c>
       <c r="G123" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D124">
         <v>1970</v>
@@ -5136,18 +5136,18 @@
         <v>106.4</v>
       </c>
       <c r="G124" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D125">
         <v>1964</v>
@@ -5159,18 +5159,18 @@
         <v>102.3</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>1994</v>
@@ -5182,18 +5182,18 @@
         <v>183</v>
       </c>
       <c r="G126" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D127">
         <v>2000</v>
@@ -5205,18 +5205,18 @@
         <v>295.5</v>
       </c>
       <c r="G127" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D128">
         <v>1997</v>
@@ -5228,18 +5228,18 @@
         <v>587.20000000000005</v>
       </c>
       <c r="G128" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D129">
         <v>2002</v>
@@ -5251,18 +5251,18 @@
         <v>425.6</v>
       </c>
       <c r="G129" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D130">
         <v>2002</v>
@@ -5274,18 +5274,18 @@
         <v>342</v>
       </c>
       <c r="G130" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D131">
         <v>2000</v>
@@ -5297,18 +5297,18 @@
         <v>212.1</v>
       </c>
       <c r="G131" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D132">
         <v>1996</v>
@@ -5320,18 +5320,18 @@
         <v>467</v>
       </c>
       <c r="G132" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D133">
         <v>2000</v>
@@ -5343,18 +5343,18 @@
         <v>545.4</v>
       </c>
       <c r="G133" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D134">
         <v>2001</v>
@@ -5366,18 +5366,18 @@
         <v>524.20000000000005</v>
       </c>
       <c r="G134" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D135">
         <v>2002</v>
@@ -5389,18 +5389,18 @@
         <v>161.69999999999999</v>
       </c>
       <c r="G135" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D136">
         <v>1993</v>
@@ -5412,18 +5412,18 @@
         <v>423.2</v>
       </c>
       <c r="G136" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>1998</v>
@@ -5435,18 +5435,18 @@
         <v>303.60000000000002</v>
       </c>
       <c r="G137" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D138">
         <v>1997</v>
@@ -5458,18 +5458,18 @@
         <v>286.89999999999998</v>
       </c>
       <c r="G138" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <v>2002</v>
@@ -5481,18 +5481,18 @@
         <v>356.5</v>
       </c>
       <c r="G139" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D140">
         <v>1978</v>
@@ -5504,18 +5504,18 @@
         <v>141.6</v>
       </c>
       <c r="G140" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>1980</v>
@@ -5527,18 +5527,18 @@
         <v>103.3</v>
       </c>
       <c r="G141" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D142">
         <v>1999</v>
@@ -5550,18 +5550,18 @@
         <v>363.1</v>
       </c>
       <c r="G142" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D143">
         <v>2000</v>
@@ -5573,15 +5573,15 @@
         <v>163.69999999999999</v>
       </c>
       <c r="G143" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D144">
         <v>2001</v>
@@ -5593,18 +5593,18 @@
         <v>444.3</v>
       </c>
       <c r="G144" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D145">
         <v>1981</v>
@@ -5616,18 +5616,18 @@
         <v>119.2</v>
       </c>
       <c r="G145" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D146">
         <v>1975</v>
@@ -5639,18 +5639,18 @@
         <v>112</v>
       </c>
       <c r="G146" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D147">
         <v>1961</v>
@@ -5662,18 +5662,18 @@
         <v>215</v>
       </c>
       <c r="G147" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D148">
         <v>1989</v>
@@ -5685,18 +5685,18 @@
         <v>100.1</v>
       </c>
       <c r="G148" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D149">
         <v>1998</v>
@@ -5708,18 +5708,18 @@
         <v>193.5</v>
       </c>
       <c r="G149" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D150">
         <v>2001</v>
@@ -5731,18 +5731,18 @@
         <v>450.4</v>
       </c>
       <c r="G150" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>1996</v>
@@ -5754,18 +5754,18 @@
         <v>152</v>
       </c>
       <c r="G151" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D152">
         <v>2001</v>
@@ -5777,18 +5777,18 @@
         <v>358.9</v>
       </c>
       <c r="G152" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D153">
         <v>1986</v>
@@ -5800,18 +5800,18 @@
         <v>153</v>
       </c>
       <c r="G153" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D154">
         <v>1995</v>
@@ -5823,18 +5823,18 @@
         <v>347.2</v>
       </c>
       <c r="G154" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D155">
         <v>1981</v>
@@ -5846,18 +5846,18 @@
         <v>105.5</v>
       </c>
       <c r="G155" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D156">
         <v>1990</v>
@@ -5869,18 +5869,18 @@
         <v>463.4</v>
       </c>
       <c r="G156" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D157">
         <v>1994</v>
@@ -5892,18 +5892,18 @@
         <v>212.9</v>
       </c>
       <c r="G157" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>1981</v>
@@ -5915,18 +5915,18 @@
         <v>384</v>
       </c>
       <c r="G158" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D159">
         <v>1988</v>
@@ -5938,18 +5938,18 @@
         <v>412.8</v>
       </c>
       <c r="G159" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D160">
         <v>1985</v>
@@ -5961,18 +5961,18 @@
         <v>300.39999999999998</v>
       </c>
       <c r="G160" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D161">
         <v>1996</v>
@@ -5984,18 +5984,18 @@
         <v>308.8</v>
       </c>
       <c r="G161" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>2000</v>
@@ -6007,18 +6007,18 @@
         <v>130</v>
       </c>
       <c r="G162" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D163">
         <v>1983</v>
@@ -6030,18 +6030,18 @@
         <v>573</v>
       </c>
       <c r="G163" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D164">
         <v>2002</v>
@@ -6053,18 +6053,18 @@
         <v>161.4</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D165">
         <v>1991</v>
@@ -6076,18 +6076,18 @@
         <v>390.5</v>
       </c>
       <c r="G165" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D166">
         <v>1976</v>
@@ -6099,18 +6099,18 @@
         <v>117.2</v>
       </c>
       <c r="G166" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D167">
         <v>1982</v>
@@ -6122,18 +6122,18 @@
         <v>122.8</v>
       </c>
       <c r="G167" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D168">
         <v>1985</v>
@@ -6145,18 +6145,18 @@
         <v>300.5</v>
       </c>
       <c r="G168" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D169">
         <v>1999</v>
@@ -6168,18 +6168,18 @@
         <v>307.89999999999998</v>
       </c>
       <c r="G169" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D170">
         <v>1998</v>
@@ -6191,18 +6191,18 @@
         <v>245.3</v>
       </c>
       <c r="G170" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D171">
         <v>2001</v>
@@ -6214,18 +6214,18 @@
         <v>329.1</v>
       </c>
       <c r="G171" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>1977</v>
@@ -6237,18 +6237,18 @@
         <v>285.39999999999998</v>
       </c>
       <c r="G172" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D173">
         <v>1998</v>
@@ -6260,18 +6260,18 @@
         <v>479.3</v>
       </c>
       <c r="G173" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D174">
         <v>2000</v>
@@ -6283,18 +6283,18 @@
         <v>277</v>
       </c>
       <c r="G174" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D175">
         <v>2002</v>
@@ -6306,18 +6306,18 @@
         <v>267.7</v>
       </c>
       <c r="G175" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D176">
         <v>1996</v>
@@ -6329,18 +6329,18 @@
         <v>173</v>
       </c>
       <c r="G176" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B177" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D177">
         <v>1997</v>
@@ -6352,18 +6352,18 @@
         <v>172.4</v>
       </c>
       <c r="G177" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D178">
         <v>1995</v>
@@ -6375,18 +6375,18 @@
         <v>350.1</v>
       </c>
       <c r="G178" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B179" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D179">
         <v>1998</v>
@@ -6398,18 +6398,18 @@
         <v>289.10000000000002</v>
       </c>
       <c r="G179" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D180">
         <v>2001</v>
@@ -6421,18 +6421,18 @@
         <v>469.7</v>
       </c>
       <c r="G180" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D181">
         <v>2002</v>
@@ -6444,18 +6444,18 @@
         <v>408</v>
       </c>
       <c r="G181" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D182">
         <v>1992</v>
@@ -6467,18 +6467,18 @@
         <v>231.6</v>
       </c>
       <c r="G182" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D183">
         <v>1991</v>
@@ -6490,18 +6490,18 @@
         <v>173</v>
       </c>
       <c r="G183" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D184">
         <v>1993</v>
@@ -6513,18 +6513,18 @@
         <v>227.9</v>
       </c>
       <c r="G184" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D185">
         <v>1999</v>
@@ -6536,18 +6536,18 @@
         <v>202.1</v>
       </c>
       <c r="G185" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D186">
         <v>1977</v>
@@ -6559,18 +6559,18 @@
         <v>126.7</v>
       </c>
       <c r="G186" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D187">
         <v>1937</v>
@@ -6582,18 +6582,18 @@
         <v>184.9</v>
       </c>
       <c r="G187" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B188" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D188">
         <v>1994</v>
@@ -6605,18 +6605,18 @@
         <v>283.2</v>
       </c>
       <c r="G188" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B189" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D189">
         <v>2002</v>
@@ -6628,18 +6628,18 @@
         <v>806.7</v>
       </c>
       <c r="G189" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D190">
         <v>2001</v>
@@ -6651,18 +6651,18 @@
         <v>143.80000000000001</v>
       </c>
       <c r="G190" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D191">
         <v>1986</v>
@@ -6674,18 +6674,18 @@
         <v>133</v>
       </c>
       <c r="G191" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D192">
         <v>1977</v>
@@ -6697,18 +6697,18 @@
         <v>797.9</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>1999</v>
@@ -6720,18 +6720,18 @@
         <v>925.5</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D194">
         <v>2002</v>
@@ -6743,18 +6743,18 @@
         <v>648.29999999999995</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D195">
         <v>1980</v>
@@ -6766,18 +6766,18 @@
         <v>101.5</v>
       </c>
       <c r="G195" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D196">
         <v>1999</v>
@@ -6789,18 +6789,18 @@
         <v>297.60000000000002</v>
       </c>
       <c r="G196" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D197">
         <v>1978</v>
@@ -6812,18 +6812,18 @@
         <v>300.2</v>
       </c>
       <c r="G197" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D198">
         <v>1980</v>
@@ -6835,18 +6835,18 @@
         <v>108.2</v>
       </c>
       <c r="G198" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D199">
         <v>2002</v>
@@ -6858,18 +6858,18 @@
         <v>149.69999999999999</v>
       </c>
       <c r="G199" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D200">
         <v>1999</v>
@@ -6881,18 +6881,18 @@
         <v>435.3</v>
       </c>
       <c r="G200" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D201">
         <v>1990</v>
@@ -6904,18 +6904,18 @@
         <v>202</v>
       </c>
       <c r="G201" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B202" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D202">
         <v>1991</v>
@@ -6927,18 +6927,18 @@
         <v>516.79999999999995</v>
       </c>
       <c r="G202" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D203">
         <v>1983</v>
@@ -6950,18 +6950,18 @@
         <v>164.2</v>
       </c>
       <c r="G203" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D204">
         <v>1991</v>
@@ -6973,18 +6973,18 @@
         <v>191.5</v>
       </c>
       <c r="G204" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D205">
         <v>1996</v>
@@ -6996,18 +6996,18 @@
         <v>185.2</v>
       </c>
       <c r="G205" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D206">
         <v>1999</v>
@@ -7019,18 +7019,18 @@
         <v>240.5</v>
       </c>
       <c r="G206" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D207">
         <v>1992</v>
@@ -7042,18 +7042,18 @@
         <v>410.9</v>
       </c>
       <c r="G207" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D208">
         <v>2002</v>
@@ -7065,18 +7065,18 @@
         <v>213.6</v>
       </c>
       <c r="G208" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D209">
         <v>1980</v>
@@ -7088,18 +7088,18 @@
         <v>533.9</v>
       </c>
       <c r="G209" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D210">
         <v>1973</v>
@@ -7111,18 +7111,18 @@
         <v>357.5</v>
       </c>
       <c r="G210" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B211" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D211">
         <v>2001</v>
@@ -7134,18 +7134,18 @@
         <v>206.5</v>
       </c>
       <c r="G211" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C212" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D212">
         <v>1993</v>
@@ -7157,18 +7157,18 @@
         <v>262.3</v>
       </c>
       <c r="G212" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D213">
         <v>1996</v>
@@ -7180,18 +7180,18 @@
         <v>181.3</v>
       </c>
       <c r="G213" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D214">
         <v>1994</v>
@@ -7203,18 +7203,18 @@
         <v>358.5</v>
       </c>
       <c r="G214" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B215" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D215">
         <v>1993</v>
@@ -7226,18 +7226,18 @@
         <v>368.9</v>
       </c>
       <c r="G215" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B216" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D216">
         <v>1999</v>
@@ -7249,18 +7249,18 @@
         <v>143.30000000000001</v>
       </c>
       <c r="G216" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D217">
         <v>1972</v>
@@ -7272,18 +7272,18 @@
         <v>134.80000000000001</v>
       </c>
       <c r="G217" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D218">
         <v>1967</v>
@@ -7295,18 +7295,18 @@
         <v>104.4</v>
       </c>
       <c r="G218" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D219">
         <v>1999</v>
@@ -7318,18 +7318,18 @@
         <v>268.7</v>
       </c>
       <c r="G219" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D220">
         <v>1996</v>
@@ -7341,18 +7341,18 @@
         <v>325.7</v>
       </c>
       <c r="G220" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D221">
         <v>1990</v>
@@ -7364,18 +7364,18 @@
         <v>199.2</v>
       </c>
       <c r="G221" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D222">
         <v>1967</v>
@@ -7387,18 +7387,18 @@
         <v>205.8</v>
       </c>
       <c r="G222" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D223">
         <v>1986</v>
@@ -7410,18 +7410,18 @@
         <v>115.1</v>
       </c>
       <c r="G223" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D224">
         <v>1994</v>
@@ -7433,18 +7433,18 @@
         <v>771.9</v>
       </c>
       <c r="G224" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D225">
         <v>1989</v>
@@ -7456,18 +7456,18 @@
         <v>222.3</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D226">
         <v>2001</v>
@@ -7479,18 +7479,18 @@
         <v>860.3</v>
       </c>
       <c r="G226" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D227">
         <v>2002</v>
@@ -7502,18 +7502,18 @@
         <v>909</v>
       </c>
       <c r="G227" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D228">
         <v>1997</v>
@@ -7525,18 +7525,18 @@
         <v>614.4</v>
       </c>
       <c r="G228" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D229">
         <v>1994</v>
@@ -7548,18 +7548,18 @@
         <v>320.89999999999998</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B230" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C230" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D230">
         <v>1999</v>
@@ -7571,18 +7571,18 @@
         <v>456.5</v>
       </c>
       <c r="G230" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B231" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D231">
         <v>2003</v>
@@ -7594,18 +7594,18 @@
         <v>389.8</v>
       </c>
       <c r="G231" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D232">
         <v>1999</v>
@@ -7617,18 +7617,18 @@
         <v>413.5</v>
       </c>
       <c r="G232" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D233">
         <v>2001</v>
@@ -7640,18 +7640,18 @@
         <v>429.5</v>
       </c>
       <c r="G233" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D234">
         <v>1996</v>
@@ -7663,18 +7663,18 @@
         <v>269.39999999999998</v>
       </c>
       <c r="G234" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D235">
         <v>2000</v>
@@ -7686,18 +7686,18 @@
         <v>215.3</v>
       </c>
       <c r="G235" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B236" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D236">
         <v>1993</v>
@@ -7709,18 +7709,18 @@
         <v>195</v>
       </c>
       <c r="G236" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D237">
         <v>2000</v>
@@ -7732,18 +7732,18 @@
         <v>325.8</v>
       </c>
       <c r="G237" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D238">
         <v>1998</v>
@@ -7755,18 +7755,18 @@
         <v>218.5</v>
       </c>
       <c r="G238" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D239">
         <v>2001</v>
@@ -7778,18 +7778,18 @@
         <v>153.69999999999999</v>
       </c>
       <c r="G239" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B240" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D240">
         <v>2002</v>
@@ -7801,18 +7801,18 @@
         <v>229.2</v>
       </c>
       <c r="G240" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B241" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D241">
         <v>1996</v>
@@ -7824,18 +7824,18 @@
         <v>330.5</v>
       </c>
       <c r="G241" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D242">
         <v>1975</v>
@@ -7847,18 +7847,18 @@
         <v>134.19999999999999</v>
       </c>
       <c r="G242" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D243">
         <v>1998</v>
@@ -7870,18 +7870,18 @@
         <v>140.9</v>
       </c>
       <c r="G243" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D244">
         <v>1994</v>
@@ -7893,18 +7893,18 @@
         <v>194.8</v>
       </c>
       <c r="G244" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D245">
         <v>2002</v>
@@ -7916,18 +7916,18 @@
         <v>167.3</v>
       </c>
       <c r="G245" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D246">
         <v>1991</v>
@@ -7939,18 +7939,18 @@
         <v>272.7</v>
       </c>
       <c r="G246" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B247" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D247">
         <v>1999</v>
@@ -7962,18 +7962,18 @@
         <v>661.5</v>
       </c>
       <c r="G247" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D248">
         <v>1965</v>
@@ -7985,18 +7985,18 @@
         <v>163.19999999999999</v>
       </c>
       <c r="G248" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D249">
         <v>1973</v>
@@ -8008,18 +8008,18 @@
         <v>159.6</v>
       </c>
       <c r="G249" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B250" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D250">
         <v>2002</v>
@@ -8031,18 +8031,18 @@
         <v>176.2</v>
       </c>
       <c r="G250" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B251" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D251">
         <v>1974</v>
@@ -8054,18 +8054,18 @@
         <v>116</v>
       </c>
       <c r="G251" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B252" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D252">
         <v>1998</v>
@@ -8077,18 +8077,18 @@
         <v>248.4</v>
       </c>
       <c r="G252" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D253">
         <v>1998</v>
@@ -8100,18 +8100,18 @@
         <v>190.2</v>
       </c>
       <c r="G253" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B254" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D254">
         <v>1999</v>
@@ -8123,18 +8123,18 @@
         <v>352</v>
       </c>
       <c r="G254" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D255">
         <v>1998</v>
@@ -8146,18 +8146,18 @@
         <v>360.1</v>
       </c>
       <c r="G255" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D256">
         <v>1987</v>
@@ -8169,18 +8169,18 @@
         <v>167.8</v>
       </c>
       <c r="G256" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B257" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D257">
         <v>1997</v>
@@ -8192,18 +8192,18 @@
         <v>1835</v>
       </c>
       <c r="G257" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D258">
         <v>1997</v>
@@ -8215,18 +8215,18 @@
         <v>346.6</v>
       </c>
       <c r="G258" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D259">
         <v>1982</v>
@@ -8238,18 +8238,18 @@
         <v>177.2</v>
       </c>
       <c r="G259" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D260">
         <v>1986</v>
@@ -8261,18 +8261,18 @@
         <v>344.8</v>
       </c>
       <c r="G260" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B261" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C261" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D261">
         <v>1990</v>
@@ -8284,18 +8284,18 @@
         <v>261.39999999999998</v>
       </c>
       <c r="G261" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D262">
         <v>1995</v>
@@ -8307,18 +8307,18 @@
         <v>358.8</v>
       </c>
       <c r="G262" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D263">
         <v>1999</v>
@@ -8330,18 +8330,18 @@
         <v>485.7</v>
       </c>
       <c r="G263" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D264">
         <v>2000</v>
@@ -8353,18 +8353,18 @@
         <v>207</v>
       </c>
       <c r="G264" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B265" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C265" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D265">
         <v>1994</v>
@@ -8376,18 +8376,18 @@
         <v>365.3</v>
       </c>
       <c r="G265" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B266" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D266">
         <v>1988</v>
@@ -8399,18 +8399,18 @@
         <v>216.6</v>
       </c>
       <c r="G266" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B267" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D267">
         <v>1996</v>
@@ -8422,18 +8422,18 @@
         <v>495</v>
       </c>
       <c r="G267" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D268">
         <v>1992</v>
@@ -8445,18 +8445,18 @@
         <v>159.19999999999999</v>
       </c>
       <c r="G268" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D269">
         <v>2001</v>
@@ -8468,18 +8468,18 @@
         <v>201.1</v>
       </c>
       <c r="G269" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B270" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D270">
         <v>1992</v>
@@ -8491,18 +8491,18 @@
         <v>183.1</v>
       </c>
       <c r="G270" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B271" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D271">
         <v>2000</v>
@@ -8514,18 +8514,18 @@
         <v>275.60000000000002</v>
       </c>
       <c r="G271" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D272">
         <v>2000</v>
@@ -8537,18 +8537,18 @@
         <v>372.3</v>
       </c>
       <c r="G272" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D273">
         <v>1988</v>
@@ -8560,18 +8560,18 @@
         <v>349.2</v>
       </c>
       <c r="G273" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B274" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D274">
         <v>1999</v>
@@ -8583,18 +8583,18 @@
         <v>217.8</v>
       </c>
       <c r="G274" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B275" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D275">
         <v>2000</v>
@@ -8606,18 +8606,18 @@
         <v>294.3</v>
       </c>
       <c r="G275" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B276" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D276">
         <v>2003</v>
@@ -8629,18 +8629,18 @@
         <v>365</v>
       </c>
       <c r="G276" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B277" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D277">
         <v>2002</v>
@@ -8652,18 +8652,18 @@
         <v>267.2</v>
       </c>
       <c r="G277" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D278">
         <v>1998</v>
@@ -8675,7 +8675,7 @@
         <v>250.7</v>
       </c>
       <c r="G278" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
